--- a/students.xlsx
+++ b/students.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -25,16 +25,7 @@
     <t>Exam 3</t>
   </si>
   <si>
-    <t>AAAA</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>SSS</t>
+    <t>Sharon</t>
   </si>
 </sst>
 </file>
@@ -411,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -432,48 +423,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="D2">
         <v>89</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
